--- a/Chemical engineering applications/Misure.xlsx
+++ b/Chemical engineering applications/Misure.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>12.24</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>12.2</v>
       </c>
       <c r="C4">
-        <v>0.42</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>12.23</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>12.4</v>
       </c>
       <c r="C6">
-        <v>0.21</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.45</v>
+        <v>12.21</v>
       </c>
       <c r="C7">
-        <v>0.43</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>12.23</v>
       </c>
       <c r="C8">
-        <v>0.31</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.15</v>
+        <v>12.22</v>
       </c>
       <c r="C9">
-        <v>0.16</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.24</v>
+        <v>12.19</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>12.2</v>
       </c>
       <c r="C11">
-        <v>0.32</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>12.21</v>
       </c>
       <c r="C12">
-        <v>0.23</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,890 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>12.3</v>
       </c>
       <c r="C13">
-        <v>0.41</v>
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12.230363636363601</v>
+      </c>
+      <c r="C14">
+        <v>12.227454545454499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12.2289090909091</v>
+      </c>
+      <c r="C15">
+        <v>12.2253636363636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12.227454545454499</v>
+      </c>
+      <c r="C16">
+        <v>12.2232727272727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>12.226000000000001</v>
+      </c>
+      <c r="C17">
+        <v>12.221181818181799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12.224545454545501</v>
+      </c>
+      <c r="C18">
+        <v>12.2190909090909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12.223090909090899</v>
+      </c>
+      <c r="C19">
+        <v>12.217000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12.221636363636399</v>
+      </c>
+      <c r="C20">
+        <v>12.214909090909099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12.2201818181818</v>
+      </c>
+      <c r="C21">
+        <v>12.2128181818182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12.2187272727273</v>
+      </c>
+      <c r="C22">
+        <v>12.210727272727301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12.2172727272727</v>
+      </c>
+      <c r="C23">
+        <v>12.208636363636399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12.2158181818182</v>
+      </c>
+      <c r="C24">
+        <v>12.2065454545455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12.214363636363601</v>
+      </c>
+      <c r="C25">
+        <v>12.204454545454499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12.2129090909091</v>
+      </c>
+      <c r="C26">
+        <v>12.2023636363636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12.211454545454499</v>
+      </c>
+      <c r="C27">
+        <v>12.200272727272701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>12.21</v>
+      </c>
+      <c r="C28">
+        <v>12.1981818181818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12.208545454545501</v>
+      </c>
+      <c r="C29">
+        <v>12.1960909090909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12.207090909090899</v>
+      </c>
+      <c r="C30">
+        <v>12.194000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12.205636363636399</v>
+      </c>
+      <c r="C31">
+        <v>12.1919090909091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>12.2041818181818</v>
+      </c>
+      <c r="C32">
+        <v>12.1898181818182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>12.2027272727273</v>
+      </c>
+      <c r="C33">
+        <v>12.187727272727299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12.2012727272727</v>
+      </c>
+      <c r="C34">
+        <v>12.1856363636364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>12.1998181818182</v>
+      </c>
+      <c r="C35">
+        <v>12.1835454545455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12.198363636363601</v>
+      </c>
+      <c r="C36">
+        <v>12.1814545454545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12.1969090909091</v>
+      </c>
+      <c r="C37">
+        <v>12.1793636363636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>12.195454545454499</v>
+      </c>
+      <c r="C38">
+        <v>12.177272727272699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>12.194000000000001</v>
+      </c>
+      <c r="C39">
+        <v>12.1751818181818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>12.192545454545501</v>
+      </c>
+      <c r="C40">
+        <v>12.173090909090901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>12.191090909090899</v>
+      </c>
+      <c r="C41">
+        <v>12.170999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>12.189636363636399</v>
+      </c>
+      <c r="C42">
+        <v>12.1689090909091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>12.1881818181818</v>
+      </c>
+      <c r="C43">
+        <v>12.166818181818201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>12.1867272727273</v>
+      </c>
+      <c r="C44">
+        <v>12.164727272727299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>12.1852727272727</v>
+      </c>
+      <c r="C45">
+        <v>12.1626363636364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>12.1838181818182</v>
+      </c>
+      <c r="C46">
+        <v>12.160545454545501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>12.182363636363601</v>
+      </c>
+      <c r="C47">
+        <v>12.1584545454545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>12.1809090909091</v>
+      </c>
+      <c r="C48">
+        <v>12.156363636363601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>12.1794545454546</v>
+      </c>
+      <c r="C49">
+        <v>12.1542727272727</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>12.178000000000001</v>
+      </c>
+      <c r="C50">
+        <v>12.1521818181818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>12.176545454545501</v>
+      </c>
+      <c r="C51">
+        <v>12.150090909090901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>12.175090909090899</v>
+      </c>
+      <c r="C52">
+        <v>12.148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>12.173636363636399</v>
+      </c>
+      <c r="C53">
+        <v>12.1459090909091</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>12.1721818181818</v>
+      </c>
+      <c r="C54">
+        <v>12.143818181818199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>12.1707272727273</v>
+      </c>
+      <c r="C55">
+        <v>12.1417272727273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>12.1692727272727</v>
+      </c>
+      <c r="C56">
+        <v>12.1396363636364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>12.1678181818182</v>
+      </c>
+      <c r="C57">
+        <v>12.137545454545499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>12.166363636363601</v>
+      </c>
+      <c r="C58">
+        <v>12.1354545454545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>12.1649090909091</v>
+      </c>
+      <c r="C59">
+        <v>12.133363636363599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>12.1634545454546</v>
+      </c>
+      <c r="C60">
+        <v>12.1312727272727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>12.162000000000001</v>
+      </c>
+      <c r="C61">
+        <v>12.129181818181801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>12.160545454545501</v>
+      </c>
+      <c r="C62">
+        <v>12.127090909090899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>12.159090909090899</v>
+      </c>
+      <c r="C63">
+        <v>12.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>12.157636363636399</v>
+      </c>
+      <c r="C64">
+        <v>12.122909090909101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>12.1561818181818</v>
+      </c>
+      <c r="C65">
+        <v>12.120818181818199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>12.1547272727273</v>
+      </c>
+      <c r="C66">
+        <v>12.1187272727273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>12.1532727272727</v>
+      </c>
+      <c r="C67">
+        <v>12.116636363636401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>12.1518181818182</v>
+      </c>
+      <c r="C68">
+        <v>12.1145454545455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>12.150363636363601</v>
+      </c>
+      <c r="C69">
+        <v>12.1124545454546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>12.1489090909091</v>
+      </c>
+      <c r="C70">
+        <v>12.1103636363636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>12.1474545454546</v>
+      </c>
+      <c r="C71">
+        <v>12.1082727272727</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>12.146000000000001</v>
+      </c>
+      <c r="C72">
+        <v>12.106181818181801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>12.144545454545501</v>
+      </c>
+      <c r="C73">
+        <v>12.1040909090909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>12.143090909090899</v>
+      </c>
+      <c r="C74">
+        <v>12.102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>12.141636363636399</v>
+      </c>
+      <c r="C75">
+        <v>12.099909090909099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>12.1401818181818</v>
+      </c>
+      <c r="C76">
+        <v>12.0978181818182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>12.1387272727273</v>
+      </c>
+      <c r="C77">
+        <v>12.0957272727273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>12.1372727272727</v>
+      </c>
+      <c r="C78">
+        <v>12.093636363636399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>12.1358181818182</v>
+      </c>
+      <c r="C79">
+        <v>12.0915454545455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>12.1343636363636</v>
+      </c>
+      <c r="C80">
+        <v>12.089454545454601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>12.1329090909091</v>
+      </c>
+      <c r="C81">
+        <v>12.0873636363636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>12.1314545454546</v>
+      </c>
+      <c r="C82">
+        <v>12.085272727272701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>12.13</v>
+      </c>
+      <c r="C83">
+        <v>12.083181818181799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>12.128545454545501</v>
+      </c>
+      <c r="C84">
+        <v>12.0810909090909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>12.127090909090899</v>
+      </c>
+      <c r="C85">
+        <v>12.079000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>12.125636363636399</v>
+      </c>
+      <c r="C86">
+        <v>12.076909090909099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>12.1241818181818</v>
+      </c>
+      <c r="C87">
+        <v>12.0748181818182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>12.1227272727273</v>
+      </c>
+      <c r="C88">
+        <v>12.072727272727301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>12.1212727272727</v>
+      </c>
+      <c r="C89">
+        <v>12.0706363636364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>12.1198181818182</v>
+      </c>
+      <c r="C90">
+        <v>12.0685454545455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>12.1183636363637</v>
+      </c>
+      <c r="C91">
+        <v>12.066454545454601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>12.1169090909091</v>
+      </c>
+      <c r="C92">
+        <v>12.0643636363636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>12.1154545454546</v>
+      </c>
+      <c r="C93">
+        <v>12.062272727272701</v>
       </c>
     </row>
   </sheetData>
